--- a/icd_files/30495.xlsx
+++ b/icd_files/30495.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0AC9D-8DFA-48FE-9A0C-F89739A8DA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC89C92D-F5E0-4FB0-A099-5E378FFEDE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="283">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -339,6 +339,9 @@
     <t>Full Code</t>
   </si>
   <si>
+    <t>05-13</t>
+  </si>
+  <si>
     <t>05-14</t>
   </si>
   <si>
@@ -363,9 +366,27 @@
     <t>05-21</t>
   </si>
   <si>
+    <t>05-22</t>
+  </si>
+  <si>
+    <t>05-24</t>
+  </si>
+  <si>
+    <t>05-27</t>
+  </si>
+  <si>
+    <t>05-28</t>
+  </si>
+  <si>
     <t>05-29</t>
   </si>
   <si>
+    <t>05-30</t>
+  </si>
+  <si>
+    <t>06-02</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -375,22 +396,139 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Psyllium Wafer</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Phenaseptic Throat Spray</t>
+  </si>
+  <si>
     <t>Metoprolol Tartrate</t>
   </si>
   <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Albumin 25% (12.5g / 50mL)</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Isosorbide Mononitrate (Extended Release)</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Lidocaine 1%</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Oxycodone-Acetaminophen</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
     <t>D5 1/2NS</t>
   </si>
   <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Meperidine</t>
+  </si>
+  <si>
+    <t>Prochlorperazine</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
     <t>5 VIAL</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>0.25-0.5 SYR</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>1000 TAB</t>
+  </si>
+  <si>
+    <t>12.5-25 mL</t>
+  </si>
+  <si>
+    <t>2.5-5 VIAL</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
   </si>
   <si>
     <t>20:15</t>
@@ -399,7 +537,7 @@
     <t>23:00</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>25 VIAL</t>
   </si>
   <si>
     <t>03:00</t>
@@ -417,16 +555,49 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>0.25 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
     <t>7.5 VIAL</t>
+  </si>
+  <si>
+    <t>1 AMP</t>
+  </si>
+  <si>
+    <t>10 SUPP</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
+    <t>1-2 WAF</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3269,7 +3440,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000000-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3877,7 +4048,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000001-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4485,7 +4656,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000002-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5099,7 +5270,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000003-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5707,7 +5878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000004-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6117,7 +6288,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000005-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6492,7 +6663,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000006-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6867,7 +7038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000007-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7242,7 +7413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000008-4DD6-42CE-8A54-A4828555A6A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7685,7 +7856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251E78DA-25B7-4F98-B562-63B9BFC185B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3BBB71-D149-4E57-B970-D7E50E786E09}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -7710,7 +7881,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7723,7 +7894,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -7736,7 +7907,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -7749,7 +7920,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -7762,27 +7933,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -7810,7 +7981,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -7838,11 +8009,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -7865,7 +8036,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7902,7 +8073,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -7925,14 +8096,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -7955,14 +8126,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -7985,14 +8156,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8015,14 +8186,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8045,16 +8216,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8077,14 +8248,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8107,10 +8278,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8118,7 +8289,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8130,7 +8301,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8153,7 +8324,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8169,11 +8340,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8196,7 +8367,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -8214,7 +8385,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -8237,7 +8408,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -8256,7 +8427,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -8279,10 +8450,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -8300,7 +8471,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -8323,52 +8494,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -8391,53 +8562,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -8460,43 +8631,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -8504,7 +8675,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -8527,43 +8698,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -8571,7 +8742,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -8594,43 +8765,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -8638,7 +8809,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -8661,43 +8832,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -8705,7 +8876,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -8728,43 +8899,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -8772,7 +8943,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -8795,43 +8966,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -8839,7 +9010,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -8862,43 +9033,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -8906,7 +9077,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -8929,43 +9100,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -8973,7 +9144,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -8996,43 +9167,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9040,7 +9211,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9063,43 +9234,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9107,7 +9278,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9130,43 +9301,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9174,7 +9345,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9197,7 +9368,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9210,10 +9381,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -9221,7 +9392,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -9244,14 +9415,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -9266,7 +9437,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -9289,7 +9460,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -9309,7 +9480,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -9332,7 +9503,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9352,7 +9523,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -9375,7 +9546,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -9393,11 +9564,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -9420,14 +9591,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -9450,14 +9621,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -9480,14 +9651,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -9510,14 +9681,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -9540,14 +9711,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -9570,14 +9741,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -9600,10 +9771,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -9620,7 +9791,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9643,7 +9814,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -9661,7 +9832,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -9684,7 +9855,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -9702,7 +9873,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -9725,14 +9896,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -9755,14 +9926,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -9785,24 +9956,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -9825,7 +9996,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -9834,7 +10005,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -9857,14 +10028,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -9872,7 +10043,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -9895,7 +10066,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -9904,7 +10075,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -9927,14 +10098,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -9942,7 +10113,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -9965,7 +10136,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -9974,7 +10145,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -9997,24 +10168,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10037,7 +10208,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10046,7 +10217,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10069,22 +10240,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10092,7 +10263,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10115,7 +10286,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10128,7 +10299,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10151,32 +10322,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10199,7 +10370,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10208,7 +10379,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10231,14 +10402,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -10246,7 +10417,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -10269,14 +10440,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -10299,12 +10470,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -10332,7 +10503,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -10359,13 +10530,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -10393,7 +10564,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -10505,7 +10676,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -10533,7 +10704,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -10561,7 +10732,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -12864,13 +13035,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AM38"/>
+  <dimension ref="A30:AZ64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12878,30 +13049,30 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>107</v>
@@ -12919,10 +13090,10 @@
         <v>107</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>108</v>
@@ -12940,10 +13111,10 @@
         <v>108</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>109</v>
@@ -12961,10 +13132,10 @@
         <v>109</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>110</v>
@@ -12982,162 +13153,228 @@
         <v>110</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AL31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS31" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AT31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>173</v>
+      </c>
+      <c r="R32" t="s">
+        <v>174</v>
+      </c>
+      <c r="S32" t="s">
+        <v>175</v>
+      </c>
+      <c r="T32" t="s">
+        <v>176</v>
+      </c>
+      <c r="U32" t="s">
+        <v>170</v>
+      </c>
+      <c r="V32" t="s">
+        <v>153</v>
+      </c>
+      <c r="W32" t="s">
+        <v>172</v>
+      </c>
+      <c r="X32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I32" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" t="s">
-        <v>127</v>
-      </c>
-      <c r="M32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>120</v>
-      </c>
-      <c r="R32" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" t="s">
-        <v>127</v>
-      </c>
-      <c r="T32" t="s">
-        <v>128</v>
-      </c>
-      <c r="U32" t="s">
-        <v>129</v>
-      </c>
-      <c r="V32" t="s">
-        <v>130</v>
-      </c>
-      <c r="W32" t="s">
-        <v>124</v>
-      </c>
-      <c r="X32" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="I35">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <v>15</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
       </c>
       <c r="M35">
         <v>15</v>
@@ -13145,12 +13382,12 @@
       <c r="N35">
         <v>15</v>
       </c>
-      <c r="O35">
-        <v>15</v>
-      </c>
       <c r="P35">
         <v>15</v>
       </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
       <c r="R35">
         <v>15</v>
       </c>
@@ -13163,9 +13400,6 @@
       <c r="U35">
         <v>15</v>
       </c>
-      <c r="V35">
-        <v>15</v>
-      </c>
       <c r="W35">
         <v>15</v>
       </c>
@@ -13184,12 +13418,12 @@
       <c r="AB35">
         <v>15</v>
       </c>
-      <c r="AC35">
-        <v>15</v>
-      </c>
       <c r="AD35">
         <v>15</v>
       </c>
+      <c r="AE35">
+        <v>15</v>
+      </c>
       <c r="AF35">
         <v>15</v>
       </c>
@@ -13202,80 +13436,636 @@
       <c r="AI35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AJ35">
+        <v>15</v>
+      </c>
+      <c r="AM35">
+        <v>15</v>
+      </c>
+      <c r="AN35">
+        <v>15</v>
+      </c>
+      <c r="AO35">
+        <v>15</v>
+      </c>
+      <c r="AP35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
+      <c r="O46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O47" t="s">
+        <v>156</v>
+      </c>
+      <c r="V47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" t="s">
+        <v>162</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
+      <c r="V48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" t="s">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" t="s">
+        <v>164</v>
+      </c>
+      <c r="K59" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s">
+        <v>166</v>
+      </c>
+      <c r="L61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J62" t="s">
+        <v>167</v>
+      </c>
+      <c r="K62" t="s">
+        <v>167</v>
+      </c>
+      <c r="L62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" t="s">
+        <v>161</v>
+      </c>
+      <c r="J63" t="s">
+        <v>161</v>
+      </c>
+      <c r="K63" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/30495.xlsx
+++ b/icd_files/30495.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0AC9D-8DFA-48FE-9A0C-F89739A8DA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8159F-C41D-42CE-AEA7-56287DD6BC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="283">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -339,6 +339,9 @@
     <t>Full Code</t>
   </si>
   <si>
+    <t>05-13</t>
+  </si>
+  <si>
     <t>05-14</t>
   </si>
   <si>
@@ -363,9 +366,27 @@
     <t>05-21</t>
   </si>
   <si>
+    <t>05-22</t>
+  </si>
+  <si>
+    <t>05-24</t>
+  </si>
+  <si>
+    <t>05-27</t>
+  </si>
+  <si>
+    <t>05-28</t>
+  </si>
+  <si>
     <t>05-29</t>
   </si>
   <si>
+    <t>05-30</t>
+  </si>
+  <si>
+    <t>06-02</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -375,22 +396,139 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Psyllium Wafer</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Phenaseptic Throat Spray</t>
+  </si>
+  <si>
     <t>Metoprolol Tartrate</t>
   </si>
   <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Albumin 25% (12.5g / 50mL)</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Isosorbide Mononitrate (Extended Release)</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Lidocaine 1%</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Oxycodone-Acetaminophen</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
     <t>D5 1/2NS</t>
   </si>
   <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Meperidine</t>
+  </si>
+  <si>
+    <t>Prochlorperazine</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
     <t>5 VIAL</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>0.25-0.5 SYR</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>1000 TAB</t>
+  </si>
+  <si>
+    <t>12.5-25 mL</t>
+  </si>
+  <si>
+    <t>2.5-5 VIAL</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
   </si>
   <si>
     <t>20:15</t>
@@ -399,7 +537,7 @@
     <t>23:00</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>25 VIAL</t>
   </si>
   <si>
     <t>03:00</t>
@@ -417,16 +555,49 @@
     <t>19:00</t>
   </si>
   <si>
+    <t>0.25 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
     <t>7.5 VIAL</t>
+  </si>
+  <si>
+    <t>1 AMP</t>
+  </si>
+  <si>
+    <t>10 SUPP</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
+    <t>1-2 WAF</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3269,7 +3440,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000000-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3877,7 +4048,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000001-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4485,7 +4656,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000002-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5099,7 +5270,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000003-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5707,7 +5878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000004-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6070,10 +6241,10 @@
                   <c:v>99.400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>97.199996948242202</c:v>
+                  <c:v>97.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>98.09999847412108</c:v>
@@ -6117,7 +6288,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000005-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6492,7 +6663,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000006-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6867,7 +7038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000007-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7242,7 +7413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6146-4A11-9F29-7DE3DB7FBFE2}"/>
+              <c16:uniqueId val="{00000008-8AD7-4AD1-9504-330C50759EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7685,7 +7856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251E78DA-25B7-4F98-B562-63B9BFC185B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BC7B51-7749-4237-A2CC-B4E70A06570D}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -7710,7 +7881,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7723,7 +7894,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -7736,7 +7907,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -7749,7 +7920,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -7762,27 +7933,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -7810,7 +7981,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -7838,11 +8009,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -7865,7 +8036,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7902,7 +8073,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -7925,14 +8096,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -7955,14 +8126,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -7985,14 +8156,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8015,14 +8186,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8045,16 +8216,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8077,14 +8248,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8107,10 +8278,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8118,7 +8289,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8130,7 +8301,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8153,7 +8324,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8169,11 +8340,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8196,7 +8367,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -8214,7 +8385,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -8237,7 +8408,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -8256,7 +8427,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -8279,10 +8450,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -8300,7 +8471,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -8323,52 +8494,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -8391,53 +8562,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -8460,43 +8631,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -8504,7 +8675,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -8527,43 +8698,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -8571,7 +8742,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -8594,43 +8765,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -8638,7 +8809,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -8661,43 +8832,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -8705,7 +8876,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -8728,43 +8899,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -8772,7 +8943,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -8795,43 +8966,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -8839,7 +9010,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -8862,43 +9033,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -8906,7 +9077,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -8929,43 +9100,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -8973,7 +9144,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -8996,43 +9167,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9040,7 +9211,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9063,43 +9234,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9107,7 +9278,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9130,43 +9301,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9174,7 +9345,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9197,7 +9368,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9210,10 +9381,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -9221,7 +9392,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -9244,14 +9415,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -9266,7 +9437,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -9289,7 +9460,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -9309,7 +9480,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -9332,7 +9503,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9352,7 +9523,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -9375,7 +9546,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -9393,11 +9564,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -9420,14 +9591,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -9450,14 +9621,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -9480,14 +9651,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -9510,14 +9681,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -9540,14 +9711,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -9570,14 +9741,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -9600,10 +9771,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -9620,7 +9791,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9643,7 +9814,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -9661,7 +9832,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -9684,7 +9855,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -9702,7 +9873,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -9725,14 +9896,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -9755,14 +9926,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -9785,24 +9956,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -9825,7 +9996,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -9834,7 +10005,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -9857,14 +10028,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -9872,7 +10043,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -9895,7 +10066,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -9904,7 +10075,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -9927,14 +10098,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -9942,7 +10113,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -9965,7 +10136,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -9974,7 +10145,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -9997,24 +10168,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10037,7 +10208,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10046,7 +10217,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10069,22 +10240,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10092,7 +10263,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10115,7 +10286,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10128,7 +10299,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10151,32 +10322,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10199,7 +10370,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10208,7 +10379,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10231,14 +10402,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -10246,7 +10417,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -10269,14 +10440,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -10299,12 +10470,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -10332,7 +10503,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -10359,13 +10530,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -10393,7 +10564,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -10505,7 +10676,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -10533,7 +10704,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -10561,7 +10732,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -11600,7 +11771,7 @@
         <v>97</v>
       </c>
       <c r="H41">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -11738,7 +11909,7 @@
         <v>97</v>
       </c>
       <c r="H47">
-        <v>97.199996948242202</v>
+        <v>97.199996948242188</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -12864,13 +13035,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AM38"/>
+  <dimension ref="A30:AZ64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12878,30 +13049,30 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>107</v>
@@ -12919,10 +13090,10 @@
         <v>107</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>108</v>
@@ -12940,10 +13111,10 @@
         <v>108</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>109</v>
@@ -12961,10 +13132,10 @@
         <v>109</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>110</v>
@@ -12982,162 +13153,228 @@
         <v>110</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AL31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS31" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AT31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>173</v>
+      </c>
+      <c r="R32" t="s">
+        <v>174</v>
+      </c>
+      <c r="S32" t="s">
+        <v>175</v>
+      </c>
+      <c r="T32" t="s">
+        <v>176</v>
+      </c>
+      <c r="U32" t="s">
+        <v>170</v>
+      </c>
+      <c r="V32" t="s">
+        <v>153</v>
+      </c>
+      <c r="W32" t="s">
+        <v>172</v>
+      </c>
+      <c r="X32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I32" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" t="s">
-        <v>127</v>
-      </c>
-      <c r="M32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" t="s">
-        <v>129</v>
-      </c>
-      <c r="O32" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>120</v>
-      </c>
-      <c r="R32" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" t="s">
-        <v>127</v>
-      </c>
-      <c r="T32" t="s">
-        <v>128</v>
-      </c>
-      <c r="U32" t="s">
-        <v>129</v>
-      </c>
-      <c r="V32" t="s">
-        <v>130</v>
-      </c>
-      <c r="W32" t="s">
-        <v>124</v>
-      </c>
-      <c r="X32" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="I35">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <v>15</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
       </c>
       <c r="M35">
         <v>15</v>
@@ -13145,12 +13382,12 @@
       <c r="N35">
         <v>15</v>
       </c>
-      <c r="O35">
-        <v>15</v>
-      </c>
       <c r="P35">
         <v>15</v>
       </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
       <c r="R35">
         <v>15</v>
       </c>
@@ -13163,9 +13400,6 @@
       <c r="U35">
         <v>15</v>
       </c>
-      <c r="V35">
-        <v>15</v>
-      </c>
       <c r="W35">
         <v>15</v>
       </c>
@@ -13184,12 +13418,12 @@
       <c r="AB35">
         <v>15</v>
       </c>
-      <c r="AC35">
-        <v>15</v>
-      </c>
       <c r="AD35">
         <v>15</v>
       </c>
+      <c r="AE35">
+        <v>15</v>
+      </c>
       <c r="AF35">
         <v>15</v>
       </c>
@@ -13202,80 +13436,636 @@
       <c r="AI35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AJ35">
+        <v>15</v>
+      </c>
+      <c r="AM35">
+        <v>15</v>
+      </c>
+      <c r="AN35">
+        <v>15</v>
+      </c>
+      <c r="AO35">
+        <v>15</v>
+      </c>
+      <c r="AP35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
+      <c r="O46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O47" t="s">
+        <v>156</v>
+      </c>
+      <c r="V47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" t="s">
+        <v>162</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
+      <c r="V48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" t="s">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" t="s">
+        <v>164</v>
+      </c>
+      <c r="K59" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s">
+        <v>166</v>
+      </c>
+      <c r="L61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J62" t="s">
+        <v>167</v>
+      </c>
+      <c r="K62" t="s">
+        <v>167</v>
+      </c>
+      <c r="L62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" t="s">
+        <v>161</v>
+      </c>
+      <c r="J63" t="s">
+        <v>161</v>
+      </c>
+      <c r="K63" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
